--- a/Output/PBL/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/PBL/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -154,15 +156,53 @@
   </si>
   <si>
     <t xml:space="preserve">CB-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -198,10 +238,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2687,4 +2729,1777 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="n">
+        <v>8145</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>5682398</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>6294502.79</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>5666696.83</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>9270886.12</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>2009998.9727</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>3665756.0938</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>1221306.7969</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>2957101.5438</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>926223.73</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>-18914.49</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3" t="n">
+        <v>439603.8388</v>
+      </c>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3" t="n">
+        <v>-70506.86</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>-129639.17</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>-37100.69</v>
+      </c>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>7542155</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>28334825</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>558742</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>23602688</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>48351628</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>21435259.1095</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>31117075.6876</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>30256748.5627</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>45552674.5557</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>62808298.4364</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>123979321.9302</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>132271619.2892</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>96745465.6119</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>143121315.7944</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>334136798.7953</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>34202980.1912</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>9518039.1719</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>289931555.8568</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>50451282.5002</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>18028490.0459</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>15951793.1861</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>35348990.7436</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>68506825.11</v>
+      </c>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f>Sum(N2:N3)</f>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f>Sum(O2:O3)</f>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f>Sum(P2:P3)</f>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <f>Sum(Q2:Q3)</f>
+      </c>
+      <c r="R4" s="3" t="str">
+        <f>Sum(R2:R3)</f>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f>Sum(S2:S3)</f>
+      </c>
+      <c r="T4" s="3" t="str">
+        <f>Sum(T2:T3)</f>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f>Sum(U2:U3)</f>
+      </c>
+      <c r="V4" s="3" t="str">
+        <f>Sum(V2:V3)</f>
+      </c>
+      <c r="W4" s="3" t="str">
+        <f>Sum(W2:W3)</f>
+      </c>
+      <c r="X4" s="3" t="str">
+        <f>Sum(X2:X3)</f>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <f>Sum(Y2:Y3)</f>
+      </c>
+      <c r="Z4" s="3" t="str">
+        <f>Sum(Z2:Z3)</f>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <f>Sum(AA2:AA3)</f>
+      </c>
+      <c r="AB4" s="3" t="str">
+        <f>Sum(AB2:AB3)</f>
+      </c>
+      <c r="AC4" s="3" t="str">
+        <f>Sum(AC2:AC3)</f>
+      </c>
+      <c r="AD4" s="3" t="str">
+        <f>Sum(AD2:AD3)</f>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <f>Sum(AE2:AE3)</f>
+      </c>
+      <c r="AF4" s="3" t="str">
+        <f>Sum(AF2:AF3)</f>
+      </c>
+      <c r="AG4" s="3" t="str">
+        <f>Sum(AG2:AG3)</f>
+      </c>
+      <c r="AH4" s="3" t="str">
+        <f>Sum(AH2:AH3)</f>
+      </c>
+      <c r="AI4" s="3" t="str">
+        <f>Sum(AI2:AI3)</f>
+      </c>
+      <c r="AJ4" s="3" t="str">
+        <f>Sum(AJ2:AJ3)</f>
+      </c>
+      <c r="AK4" s="3" t="str">
+        <f>Sum(AK2:AK3)</f>
+      </c>
+      <c r="AL4" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="n">
+        <v>12234.036551462</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>8266599.01778384</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>8911736.90279794</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>7859716.87033447</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>12728568.9800909</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>2735956.45079793</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>4891548.38933665</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>1600654.07724619</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>3806531.53356765</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>1170920.98926332</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>-23666.3775549576</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3" t="n">
+        <v>536624.406126246</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3" t="n">
+        <v>-78888.8395984178</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>-135569.72056965</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>-36135.6517188249</v>
+      </c>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>12379600.1120083</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>44925731.7257353</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>864785.545111672</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>35451951.8360656</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>70340641.4920338</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>30347971.2377992</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>43159429.9244176</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>41541348.4977197</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>62005073.3828746</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>83810767.3266029</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>162488252.456718</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>170266756.945174</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>122304463.416227</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>179077685.718863</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>414765904.478212</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>41751577.9274183</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>11366337.7158812</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>339947603.861165</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>58391846.5334803</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>20171748.6700255</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>16681533.4040199</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>35348990.7436</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>66724871.4926166</v>
+      </c>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="n">
+        <v>6567953</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>41839261</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>5108600</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3115472.2754</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1584480.9687</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>16801357.4591</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>27366409.6037</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>107963287.3613</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>118811609.81</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>88716944.65</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>132711609.8</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>135855374</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>25353088.3271</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>-616422.751</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>-1347765.6913</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>-2545520.2244</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>-3859753.2241</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>-369686.1883</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>-12291.21</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>36944672.61</v>
+      </c>
+      <c r="AL2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="n">
+        <v>5682398</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>6426037.79</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>10252868.0723</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>25937613.91</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>21091478.2413</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>32322919.0788</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>13378357.6398</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>6368557.6436</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1710099.6719</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>605498.31</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>190490237.2563</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>-2411776.8557</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>420782.9737</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>276373442.0442</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>47186430.7974</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>9400420.39</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>9749880.37</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>23667205.3325</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>20487449.77</v>
+      </c>
+      <c r="AL3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="n">
+        <v>99950</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>79950</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>386242.7188</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>2807128</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>152133.9375</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>-5000.1</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4" t="n">
+        <v>2071829.8</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>-33904.0508</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>2269385.6289</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>-45159.6016</v>
+      </c>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="n">
+        <v>3176254.1095</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>11640581.9316</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>6715431.1045</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3238681.8671</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4449914.3125</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4" t="n">
+        <v>-123489.3281</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>-1216.76</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="n">
+        <v>969700</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>-9823</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>7542155</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>28334825</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>558742</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>16073180</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>6522190</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>13018870</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>11774850.2383</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>5190158.6995</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>6351205.9609</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1948568.8164</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>1032256.6655</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>10019908.77</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>7292062.09</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>10652337.8844</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>8046747.0351</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>9629442.7586</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>9747703</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>12636493.875</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>6357790.3902</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>12417316.02</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>6747394.3032</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>11734086.1211</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>11037602.04</v>
+      </c>
+      <c r="AL7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4" t="n">
+        <v>19599.0605</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4" t="n">
+        <v>-41200.21</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>-867044.69</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>-255559.4961</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>-120</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>-502258.8614</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>-305434.4688</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>-40009.5</v>
+      </c>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f>Sum(O2:O8)</f>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f>Sum(P2:P8)</f>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f>Sum(Q2:Q8)</f>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f>Sum(R2:R8)</f>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f>Sum(S2:S8)</f>
+      </c>
+      <c r="T9" s="4" t="str">
+        <f>Sum(T2:T8)</f>
+      </c>
+      <c r="U9" s="4" t="str">
+        <f>Sum(U2:U8)</f>
+      </c>
+      <c r="V9" s="4" t="str">
+        <f>Sum(V2:V8)</f>
+      </c>
+      <c r="W9" s="4" t="str">
+        <f>Sum(W2:W8)</f>
+      </c>
+      <c r="X9" s="4" t="str">
+        <f>Sum(X2:X8)</f>
+      </c>
+      <c r="Y9" s="4" t="str">
+        <f>Sum(Y2:Y8)</f>
+      </c>
+      <c r="Z9" s="4" t="str">
+        <f>Sum(Z2:Z8)</f>
+      </c>
+      <c r="AA9" s="4" t="str">
+        <f>Sum(AA2:AA8)</f>
+      </c>
+      <c r="AB9" s="4" t="str">
+        <f>Sum(AB2:AB8)</f>
+      </c>
+      <c r="AC9" s="4" t="str">
+        <f>Sum(AC2:AC8)</f>
+      </c>
+      <c r="AD9" s="4" t="str">
+        <f>Sum(AD2:AD8)</f>
+      </c>
+      <c r="AE9" s="4" t="str">
+        <f>Sum(AE2:AE8)</f>
+      </c>
+      <c r="AF9" s="4" t="str">
+        <f>Sum(AF2:AF8)</f>
+      </c>
+      <c r="AG9" s="4" t="str">
+        <f>Sum(AG2:AG8)</f>
+      </c>
+      <c r="AH9" s="4" t="str">
+        <f>Sum(AH2:AH8)</f>
+      </c>
+      <c r="AI9" s="4" t="str">
+        <f>Sum(AI2:AI8)</f>
+      </c>
+      <c r="AJ9" s="4" t="str">
+        <f>Sum(AJ2:AJ8)</f>
+      </c>
+      <c r="AK9" s="4" t="str">
+        <f>Sum(AK2:AK8)</f>
+      </c>
+      <c r="AL9" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4" t="n">
+        <v>9865264.21980168</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>60866626.006732</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v>7232739.52852336</v>
+      </c>
+      <c r="U13" s="4" t="n">
+        <v>4321164.64611019</v>
+      </c>
+      <c r="V13" s="4" t="n">
+        <v>2175431.24213666</v>
+      </c>
+      <c r="W13" s="4" t="n">
+        <v>22869555.1324779</v>
+      </c>
+      <c r="X13" s="4" t="n">
+        <v>36517464.1720747</v>
+      </c>
+      <c r="Y13" s="4" t="n">
+        <v>141497514.421773</v>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <v>152940348.039089</v>
+      </c>
+      <c r="AA13" s="4" t="n">
+        <v>112154902.999513</v>
+      </c>
+      <c r="AB13" s="4" t="n">
+        <v>166052749.159666</v>
+      </c>
+      <c r="AC13" s="4" t="n">
+        <v>168638046.687746</v>
+      </c>
+      <c r="AD13" s="4" t="n">
+        <v>30948514.9268362</v>
+      </c>
+      <c r="AE13" s="4" t="n">
+        <v>-736125.270875503</v>
+      </c>
+      <c r="AF13" s="4" t="n">
+        <v>-1580268.54293162</v>
+      </c>
+      <c r="AG13" s="4" t="n">
+        <v>-2946161.50323722</v>
+      </c>
+      <c r="AH13" s="4" t="n">
+        <v>-4318607.4799743</v>
+      </c>
+      <c r="AI13" s="4" t="n">
+        <v>-386598.072529236</v>
+      </c>
+      <c r="AJ13" s="4" t="n">
+        <v>-12291.21</v>
+      </c>
+      <c r="AK13" s="4" t="n">
+        <v>35983692.5486014</v>
+      </c>
+      <c r="AL13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="n">
+        <v>8266599.01778384</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>9097963.73478406</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>14220743.155086</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>35611343.2479957</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>28709151.9622192</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>43131381.0064935</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>17533778.3735899</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>8197931.36442469</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>2161887.60307407</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>757617.657856423</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>236456612.485478</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>-2944056.00831854</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>502494.400137272</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>324050581.924903</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>54613137.4474682</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>10517958.909309</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>10195904.1958415</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>23667205.3325</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>19954543.9584989</v>
+      </c>
+      <c r="AL14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4" t="n">
+        <v>137227.494016514</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>108825.786088569</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>515398.43369138</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>3679043.53759185</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>195834.54333306</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>-6321.06676689824</v>
+      </c>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4" t="n">
+        <v>2529082.63734584</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>-40487.8446462902</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>2660876.99388802</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>-52267.3041290845</v>
+      </c>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4" t="n">
+        <v>4496930.40175692</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>16145504.326955</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>9220027.83102637</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>4408406.50504006</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>5937921.29945869</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4" t="n">
+        <v>-158961.744975344</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>-1538.21347558871</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="M17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="n">
+        <v>1456518.75309426</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>-14290.2348888076</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>12379600.1120083</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>44925731.7257353</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>864785.545111672</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>24142402.8997211</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>9488305.7201906</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>18432074.4755328</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>16331734.6666009</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>7125887.66263526</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>8645090.44784678</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>2600150.80422126</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>1352883.52164343</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>12898136.2768703</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>9218537.89709356</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>13328524.8619016</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>9988472.75772597</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>11754660.7776811</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>11640599.7339462</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>14816413.4853064</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>7358447.64214116</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>13893508.4010924</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>7056064.61579529</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>11734086.1211</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>10750499.3337976</v>
+      </c>
+      <c r="AL18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4" t="n">
+        <v>25686.679366027</v>
+      </c>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4" t="n">
+        <v>-52084.8139477667</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>-1084872.33811544</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>-317227.452738149</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>-143.302680444156</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>-581309.748762741</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>-319407.055657294</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>-40009.5</v>
+      </c>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/PBL/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -198,11 +198,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -238,12 +239,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3412,70 +3414,70 @@
       <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="n">
         <v>6567953</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="5" t="n">
         <v>41839261</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="5" t="n">
         <v>5108600</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <v>3115472.2754</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>1584480.9687</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>16801357.4591</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>27366409.6037</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>107963287.3613</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>118811609.81</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>88716944.65</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>132711609.8</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>135855374</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>25353088.3271</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>-616422.751</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="5" t="n">
         <v>-1347765.6913</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="5" t="n">
         <v>-2545520.2244</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="5" t="n">
         <v>-3859753.2241</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="5" t="n">
         <v>-369686.1883</v>
       </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AJ2" s="5" t="n">
         <v>-12291.21</v>
       </c>
-      <c r="AK2" s="4" t="n">
+      <c r="AK2" s="5" t="n">
         <v>36944672.61</v>
       </c>
-      <c r="AL2" s="4"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3490,68 +3492,68 @@
       <c r="N3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="n">
         <v>5682398</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="5" t="n">
         <v>6426037.79</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="5" t="n">
         <v>10252868.0723</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="5" t="n">
         <v>25937613.91</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="5" t="n">
         <v>21091478.2413</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="5" t="n">
         <v>32322919.0788</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>13378357.6398</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="5" t="n">
         <v>6368557.6436</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <v>1710099.6719</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>605498.31</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="5" t="n">
         <v>190490237.2563</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="5" t="n">
         <v>-2411776.8557</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>420782.9737</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="5" t="n">
         <v>276373442.0442</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="5" t="n">
         <v>47186430.7974</v>
       </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="5" t="n">
         <v>9400420.39</v>
       </c>
-      <c r="AI3" s="4" t="n">
+      <c r="AI3" s="5" t="n">
         <v>9749880.37</v>
       </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AJ3" s="5" t="n">
         <v>23667205.3325</v>
       </c>
-      <c r="AK3" s="4" t="n">
+      <c r="AK3" s="5" t="n">
         <v>20487449.77</v>
       </c>
-      <c r="AL3" s="4"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3566,50 +3568,50 @@
       <c r="N4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="n">
         <v>99950</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="5" t="n">
         <v>79950</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="5" t="n">
         <v>386242.7188</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="5" t="n">
         <v>2807128</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="5" t="n">
         <v>152133.9375</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="5" t="n">
         <v>-5000.1</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4" t="n">
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5" t="n">
         <v>2071829.8</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="5" t="n">
         <v>-33904.0508</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="5" t="n">
         <v>2269385.6289</v>
       </c>
-      <c r="AG4" s="4" t="n">
+      <c r="AG4" s="5" t="n">
         <v>-45159.6016</v>
       </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3624,44 +3626,44 @@
       <c r="N5" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5" t="n">
         <v>3176254.1095</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="5" t="n">
         <v>11640581.9316</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="5" t="n">
         <v>6715431.1045</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="5" t="n">
         <v>3238681.8671</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="5" t="n">
         <v>4449914.3125</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5" t="n">
         <v>-123489.3281</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="5" t="n">
         <v>-1216.76</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3676,34 +3678,34 @@
       <c r="N6" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="n">
         <v>969700</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="5" t="n">
         <v>-9823</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3718,76 +3720,76 @@
       <c r="N7" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="5" t="n">
         <v>7542155</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="5" t="n">
         <v>28334825</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="5" t="n">
         <v>558742</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="5" t="n">
         <v>16073180</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="5" t="n">
         <v>6522190</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="5" t="n">
         <v>13018870</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="5" t="n">
         <v>11774850.2383</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="5" t="n">
         <v>5190158.6995</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="5" t="n">
         <v>6351205.9609</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="5" t="n">
         <v>1948568.8164</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="5" t="n">
         <v>1032256.6655</v>
       </c>
-      <c r="Z7" s="4" t="n">
+      <c r="Z7" s="5" t="n">
         <v>10019908.77</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="5" t="n">
         <v>7292062.09</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AB7" s="5" t="n">
         <v>10652337.8844</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AC7" s="5" t="n">
         <v>8046747.0351</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="5" t="n">
         <v>9629442.7586</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="5" t="n">
         <v>9747703</v>
       </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="5" t="n">
         <v>12636493.875</v>
       </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AG7" s="5" t="n">
         <v>6357790.3902</v>
       </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="5" t="n">
         <v>12417316.02</v>
       </c>
-      <c r="AI7" s="4" t="n">
+      <c r="AI7" s="5" t="n">
         <v>6747394.3032</v>
       </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AJ7" s="5" t="n">
         <v>11734086.1211</v>
       </c>
-      <c r="AK7" s="4" t="n">
+      <c r="AK7" s="5" t="n">
         <v>11037602.04</v>
       </c>
-      <c r="AL7" s="4"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3802,52 +3804,52 @@
       <c r="N8" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4" t="n">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5" t="n">
         <v>19599.0605</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4" t="n">
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5" t="n">
         <v>-41200.21</v>
       </c>
-      <c r="AB8" s="4" t="n">
+      <c r="AB8" s="5" t="n">
         <v>-867044.69</v>
       </c>
-      <c r="AC8" s="4" t="n">
+      <c r="AC8" s="5" t="n">
         <v>-255559.4961</v>
       </c>
-      <c r="AD8" s="4" t="n">
+      <c r="AD8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE8" s="4" t="n">
+      <c r="AE8" s="5" t="n">
         <v>-120</v>
       </c>
-      <c r="AF8" s="4" t="n">
+      <c r="AF8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG8" s="4" t="n">
+      <c r="AG8" s="5" t="n">
         <v>-502258.8614</v>
       </c>
-      <c r="AH8" s="4" t="n">
+      <c r="AH8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI8" s="4" t="n">
+      <c r="AI8" s="5" t="n">
         <v>-305434.4688</v>
       </c>
-      <c r="AJ8" s="4" t="n">
+      <c r="AJ8" s="5" t="n">
         <v>-40009.5</v>
       </c>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3862,76 +3864,76 @@
       <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="4" t="str">
+      <c r="O9" s="5" t="str">
         <f>Sum(O2:O8)</f>
       </c>
-      <c r="P9" s="4" t="str">
+      <c r="P9" s="5" t="str">
         <f>Sum(P2:P8)</f>
       </c>
-      <c r="Q9" s="4" t="str">
+      <c r="Q9" s="5" t="str">
         <f>Sum(Q2:Q8)</f>
       </c>
-      <c r="R9" s="4" t="str">
+      <c r="R9" s="5" t="str">
         <f>Sum(R2:R8)</f>
       </c>
-      <c r="S9" s="4" t="str">
+      <c r="S9" s="5" t="str">
         <f>Sum(S2:S8)</f>
       </c>
-      <c r="T9" s="4" t="str">
+      <c r="T9" s="5" t="str">
         <f>Sum(T2:T8)</f>
       </c>
-      <c r="U9" s="4" t="str">
+      <c r="U9" s="5" t="str">
         <f>Sum(U2:U8)</f>
       </c>
-      <c r="V9" s="4" t="str">
+      <c r="V9" s="5" t="str">
         <f>Sum(V2:V8)</f>
       </c>
-      <c r="W9" s="4" t="str">
+      <c r="W9" s="5" t="str">
         <f>Sum(W2:W8)</f>
       </c>
-      <c r="X9" s="4" t="str">
+      <c r="X9" s="5" t="str">
         <f>Sum(X2:X8)</f>
       </c>
-      <c r="Y9" s="4" t="str">
+      <c r="Y9" s="5" t="str">
         <f>Sum(Y2:Y8)</f>
       </c>
-      <c r="Z9" s="4" t="str">
+      <c r="Z9" s="5" t="str">
         <f>Sum(Z2:Z8)</f>
       </c>
-      <c r="AA9" s="4" t="str">
+      <c r="AA9" s="5" t="str">
         <f>Sum(AA2:AA8)</f>
       </c>
-      <c r="AB9" s="4" t="str">
+      <c r="AB9" s="5" t="str">
         <f>Sum(AB2:AB8)</f>
       </c>
-      <c r="AC9" s="4" t="str">
+      <c r="AC9" s="5" t="str">
         <f>Sum(AC2:AC8)</f>
       </c>
-      <c r="AD9" s="4" t="str">
+      <c r="AD9" s="5" t="str">
         <f>Sum(AD2:AD8)</f>
       </c>
-      <c r="AE9" s="4" t="str">
+      <c r="AE9" s="5" t="str">
         <f>Sum(AE2:AE8)</f>
       </c>
-      <c r="AF9" s="4" t="str">
+      <c r="AF9" s="5" t="str">
         <f>Sum(AF2:AF8)</f>
       </c>
-      <c r="AG9" s="4" t="str">
+      <c r="AG9" s="5" t="str">
         <f>Sum(AG2:AG8)</f>
       </c>
-      <c r="AH9" s="4" t="str">
+      <c r="AH9" s="5" t="str">
         <f>Sum(AH2:AH8)</f>
       </c>
-      <c r="AI9" s="4" t="str">
+      <c r="AI9" s="5" t="str">
         <f>Sum(AI2:AI8)</f>
       </c>
-      <c r="AJ9" s="4" t="str">
+      <c r="AJ9" s="5" t="str">
         <f>Sum(AJ2:AJ8)</f>
       </c>
-      <c r="AK9" s="4" t="str">
+      <c r="AK9" s="5" t="str">
         <f>Sum(AK2:AK8)</f>
       </c>
-      <c r="AL9" s="4"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4029,70 +4031,70 @@
       <c r="N13" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4" t="n">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5" t="n">
         <v>9865264.21980168</v>
       </c>
-      <c r="S13" s="4" t="n">
+      <c r="S13" s="5" t="n">
         <v>60866626.006732</v>
       </c>
-      <c r="T13" s="4" t="n">
+      <c r="T13" s="5" t="n">
         <v>7232739.52852336</v>
       </c>
-      <c r="U13" s="4" t="n">
+      <c r="U13" s="5" t="n">
         <v>4321164.64611019</v>
       </c>
-      <c r="V13" s="4" t="n">
+      <c r="V13" s="5" t="n">
         <v>2175431.24213666</v>
       </c>
-      <c r="W13" s="4" t="n">
+      <c r="W13" s="5" t="n">
         <v>22869555.1324779</v>
       </c>
-      <c r="X13" s="4" t="n">
+      <c r="X13" s="5" t="n">
         <v>36517464.1720747</v>
       </c>
-      <c r="Y13" s="4" t="n">
+      <c r="Y13" s="5" t="n">
         <v>141497514.421773</v>
       </c>
-      <c r="Z13" s="4" t="n">
+      <c r="Z13" s="5" t="n">
         <v>152940348.039089</v>
       </c>
-      <c r="AA13" s="4" t="n">
+      <c r="AA13" s="5" t="n">
         <v>112154902.999513</v>
       </c>
-      <c r="AB13" s="4" t="n">
+      <c r="AB13" s="5" t="n">
         <v>166052749.159666</v>
       </c>
-      <c r="AC13" s="4" t="n">
+      <c r="AC13" s="5" t="n">
         <v>168638046.687746</v>
       </c>
-      <c r="AD13" s="4" t="n">
+      <c r="AD13" s="5" t="n">
         <v>30948514.9268362</v>
       </c>
-      <c r="AE13" s="4" t="n">
+      <c r="AE13" s="5" t="n">
         <v>-736125.270875503</v>
       </c>
-      <c r="AF13" s="4" t="n">
+      <c r="AF13" s="5" t="n">
         <v>-1580268.54293162</v>
       </c>
-      <c r="AG13" s="4" t="n">
+      <c r="AG13" s="5" t="n">
         <v>-2946161.50323722</v>
       </c>
-      <c r="AH13" s="4" t="n">
+      <c r="AH13" s="5" t="n">
         <v>-4318607.4799743</v>
       </c>
-      <c r="AI13" s="4" t="n">
+      <c r="AI13" s="5" t="n">
         <v>-386598.072529236</v>
       </c>
-      <c r="AJ13" s="4" t="n">
+      <c r="AJ13" s="5" t="n">
         <v>-12291.21</v>
       </c>
-      <c r="AK13" s="4" t="n">
+      <c r="AK13" s="5" t="n">
         <v>35983692.5486014</v>
       </c>
-      <c r="AL13" s="4"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4107,68 +4109,68 @@
       <c r="N14" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4" t="n">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5" t="n">
         <v>8266599.01778384</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="5" t="n">
         <v>9097963.73478406</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="5" t="n">
         <v>14220743.155086</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="5" t="n">
         <v>35611343.2479957</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="5" t="n">
         <v>28709151.9622192</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="5" t="n">
         <v>43131381.0064935</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="5" t="n">
         <v>17533778.3735899</v>
       </c>
-      <c r="Z14" s="4" t="n">
+      <c r="Z14" s="5" t="n">
         <v>8197931.36442469</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="5" t="n">
         <v>2161887.60307407</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="5" t="n">
         <v>757617.657856423</v>
       </c>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="5" t="n">
         <v>236456612.485478</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AD14" s="5" t="n">
         <v>-2944056.00831854</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="5" t="n">
         <v>502494.400137272</v>
       </c>
-      <c r="AF14" s="4" t="n">
+      <c r="AF14" s="5" t="n">
         <v>324050581.924903</v>
       </c>
-      <c r="AG14" s="4" t="n">
+      <c r="AG14" s="5" t="n">
         <v>54613137.4474682</v>
       </c>
-      <c r="AH14" s="4" t="n">
+      <c r="AH14" s="5" t="n">
         <v>10517958.909309</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AI14" s="5" t="n">
         <v>10195904.1958415</v>
       </c>
-      <c r="AJ14" s="4" t="n">
+      <c r="AJ14" s="5" t="n">
         <v>23667205.3325</v>
       </c>
-      <c r="AK14" s="4" t="n">
+      <c r="AK14" s="5" t="n">
         <v>19954543.9584989</v>
       </c>
-      <c r="AL14" s="4"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4183,50 +4185,50 @@
       <c r="N15" t="s">
         <v>55</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4" t="n">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="n">
         <v>137227.494016514</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="5" t="n">
         <v>108825.786088569</v>
       </c>
-      <c r="X15" s="4" t="n">
+      <c r="X15" s="5" t="n">
         <v>515398.43369138</v>
       </c>
-      <c r="Y15" s="4" t="n">
+      <c r="Y15" s="5" t="n">
         <v>3679043.53759185</v>
       </c>
-      <c r="Z15" s="4" t="n">
+      <c r="Z15" s="5" t="n">
         <v>195834.54333306</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="5" t="n">
         <v>-6321.06676689824</v>
       </c>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4" t="n">
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5" t="n">
         <v>2529082.63734584</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="5" t="n">
         <v>-40487.8446462902</v>
       </c>
-      <c r="AF15" s="4" t="n">
+      <c r="AF15" s="5" t="n">
         <v>2660876.99388802</v>
       </c>
-      <c r="AG15" s="4" t="n">
+      <c r="AG15" s="5" t="n">
         <v>-52267.3041290845</v>
       </c>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4241,44 +4243,44 @@
       <c r="N16" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4" t="n">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5" t="n">
         <v>4496930.40175692</v>
       </c>
-      <c r="U16" s="4" t="n">
+      <c r="U16" s="5" t="n">
         <v>16145504.326955</v>
       </c>
-      <c r="V16" s="4" t="n">
+      <c r="V16" s="5" t="n">
         <v>9220027.83102637</v>
       </c>
-      <c r="W16" s="4" t="n">
+      <c r="W16" s="5" t="n">
         <v>4408406.50504006</v>
       </c>
-      <c r="X16" s="4" t="n">
+      <c r="X16" s="5" t="n">
         <v>5937921.29945869</v>
       </c>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="n">
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5" t="n">
         <v>-158961.744975344</v>
       </c>
-      <c r="AA16" s="4" t="n">
+      <c r="AA16" s="5" t="n">
         <v>-1538.21347558871</v>
       </c>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4293,34 +4295,34 @@
       <c r="N17" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4" t="n">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5" t="n">
         <v>1456518.75309426</v>
       </c>
-      <c r="S17" s="4" t="n">
+      <c r="S17" s="5" t="n">
         <v>-14290.2348888076</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4335,76 +4337,76 @@
       <c r="N18" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="5" t="n">
         <v>12379600.1120083</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="P18" s="5" t="n">
         <v>44925731.7257353</v>
       </c>
-      <c r="Q18" s="4" t="n">
+      <c r="Q18" s="5" t="n">
         <v>864785.545111672</v>
       </c>
-      <c r="R18" s="4" t="n">
+      <c r="R18" s="5" t="n">
         <v>24142402.8997211</v>
       </c>
-      <c r="S18" s="4" t="n">
+      <c r="S18" s="5" t="n">
         <v>9488305.7201906</v>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="T18" s="5" t="n">
         <v>18432074.4755328</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="U18" s="5" t="n">
         <v>16331734.6666009</v>
       </c>
-      <c r="V18" s="4" t="n">
+      <c r="V18" s="5" t="n">
         <v>7125887.66263526</v>
       </c>
-      <c r="W18" s="4" t="n">
+      <c r="W18" s="5" t="n">
         <v>8645090.44784678</v>
       </c>
-      <c r="X18" s="4" t="n">
+      <c r="X18" s="5" t="n">
         <v>2600150.80422126</v>
       </c>
-      <c r="Y18" s="4" t="n">
+      <c r="Y18" s="5" t="n">
         <v>1352883.52164343</v>
       </c>
-      <c r="Z18" s="4" t="n">
+      <c r="Z18" s="5" t="n">
         <v>12898136.2768703</v>
       </c>
-      <c r="AA18" s="4" t="n">
+      <c r="AA18" s="5" t="n">
         <v>9218537.89709356</v>
       </c>
-      <c r="AB18" s="4" t="n">
+      <c r="AB18" s="5" t="n">
         <v>13328524.8619016</v>
       </c>
-      <c r="AC18" s="4" t="n">
+      <c r="AC18" s="5" t="n">
         <v>9988472.75772597</v>
       </c>
-      <c r="AD18" s="4" t="n">
+      <c r="AD18" s="5" t="n">
         <v>11754660.7776811</v>
       </c>
-      <c r="AE18" s="4" t="n">
+      <c r="AE18" s="5" t="n">
         <v>11640599.7339462</v>
       </c>
-      <c r="AF18" s="4" t="n">
+      <c r="AF18" s="5" t="n">
         <v>14816413.4853064</v>
       </c>
-      <c r="AG18" s="4" t="n">
+      <c r="AG18" s="5" t="n">
         <v>7358447.64214116</v>
       </c>
-      <c r="AH18" s="4" t="n">
+      <c r="AH18" s="5" t="n">
         <v>13893508.4010924</v>
       </c>
-      <c r="AI18" s="4" t="n">
+      <c r="AI18" s="5" t="n">
         <v>7056064.61579529</v>
       </c>
-      <c r="AJ18" s="4" t="n">
+      <c r="AJ18" s="5" t="n">
         <v>11734086.1211</v>
       </c>
-      <c r="AK18" s="4" t="n">
+      <c r="AK18" s="5" t="n">
         <v>10750499.3337976</v>
       </c>
-      <c r="AL18" s="4"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -4419,52 +4421,52 @@
       <c r="N19" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4" t="n">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5" t="n">
         <v>25686.679366027</v>
       </c>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4" t="n">
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5" t="n">
         <v>-52084.8139477667</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AB19" s="5" t="n">
         <v>-1084872.33811544</v>
       </c>
-      <c r="AC19" s="4" t="n">
+      <c r="AC19" s="5" t="n">
         <v>-317227.452738149</v>
       </c>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" s="4" t="n">
+      <c r="AE19" s="5" t="n">
         <v>-143.302680444156</v>
       </c>
-      <c r="AF19" s="4" t="n">
+      <c r="AF19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG19" s="4" t="n">
+      <c r="AG19" s="5" t="n">
         <v>-581309.748762741</v>
       </c>
-      <c r="AH19" s="4" t="n">
+      <c r="AH19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI19" s="4" t="n">
+      <c r="AI19" s="5" t="n">
         <v>-319407.055657294</v>
       </c>
-      <c r="AJ19" s="4" t="n">
+      <c r="AJ19" s="5" t="n">
         <v>-40009.5</v>
       </c>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -4473,30 +4475,30 @@
       <c r="B20" t="str">
         <f>N20</f>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/PBL/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -199,11 +199,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -241,11 +241,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
